--- a/results/I2_N10_T30_C300_0_P5_res.xlsx
+++ b/results/I2_N10_T30_C300_0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>498.8474219741757</v>
+        <v>433.41074364326</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01699995994567871</v>
+        <v>0.01799988746643066</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30.16742239378572</v>
+        <v>33.93074364325894</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2.580484450641003</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2.580484450641003</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>217.28999958039</v>
+        <v>235.100000000001</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>251.39</v>
+        <v>164.38</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -711,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -722,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -733,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -744,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -755,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -868,7 +923,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -901,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -984,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>7.38807534940317</v>
       </c>
     </row>
     <row r="4">
@@ -992,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>24.12074022476544</v>
+        <v>26.95051889297535</v>
       </c>
     </row>
     <row r="5">
@@ -1008,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>24.76592070603971</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.71579249669673</v>
+        <v>24.16886835983306</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>19.39966675920785</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1040,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.31224998648502</v>
+        <v>22.45367071955468</v>
       </c>
     </row>
     <row r="11">
@@ -1048,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.76592070603971</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1056,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17.38807534940317</v>
+        <v>22.01159140980467</v>
       </c>
     </row>
     <row r="13">
@@ -1064,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>27.90090852477161</v>
+        <v>28.28184163802894</v>
       </c>
     </row>
     <row r="14">
@@ -1072,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.31314932600328</v>
+        <v>29.53100334361635</v>
       </c>
     </row>
     <row r="15">
@@ -1080,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>23.01392562639436</v>
+        <v>25.35398438790795</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1122,6 +1177,76 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1223,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>226.1550000000009</v>
+        <v>97.1700000000008</v>
       </c>
     </row>
     <row r="8">
@@ -1234,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>231.7400000000009</v>
+        <v>99.27000000000081</v>
       </c>
     </row>
     <row r="9">
@@ -1245,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>232.920000000001</v>
+        <v>100.1150000000008</v>
       </c>
     </row>
     <row r="10">
@@ -1256,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>236.415000000001</v>
+        <v>99.0400000000008</v>
       </c>
     </row>
     <row r="11">
@@ -1267,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>232.165000000001</v>
+        <v>97.9800000000008</v>
       </c>
     </row>
     <row r="12">
@@ -1278,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>307.6300000000017</v>
+        <v>319.6700000000007</v>
       </c>
     </row>
     <row r="13">
@@ -1289,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>312.4200000000017</v>
+        <v>323.35</v>
       </c>
     </row>
     <row r="14">
@@ -1300,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>317.6350000000016</v>
+        <v>324.5350000000007</v>
       </c>
     </row>
     <row r="15">
@@ -1311,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>316.85</v>
+        <v>329.9</v>
       </c>
     </row>
     <row r="16">
@@ -1322,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>319.5100000000016</v>
+        <v>320.0950000000008</v>
       </c>
     </row>
     <row r="17">
@@ -1377,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>39.43499999999942</v>
+        <v>39.43499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1388,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>72.62999999999948</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="23">
@@ -1399,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>80.0549999999995</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="24">
@@ -1410,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>82.3199999999995</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="25">
@@ -1421,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>83.95499999999949</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="26">
@@ -1432,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.81499999999949</v>
+        <v>224.4749999999995</v>
       </c>
     </row>
     <row r="27">
@@ -1443,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>295.9199999999996</v>
+        <v>224.1799999999995</v>
       </c>
     </row>
     <row r="28">
@@ -1454,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>323.5</v>
+        <v>224.6649999999995</v>
       </c>
     </row>
     <row r="29">
@@ -1465,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>294.2649999999996</v>
+        <v>201.1149999999995</v>
       </c>
     </row>
     <row r="30">
@@ -1476,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>311.1</v>
+        <v>218.9699999999995</v>
       </c>
     </row>
     <row r="31">
@@ -1487,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>297.3649999999996</v>
+        <v>207.1049999999995</v>
       </c>
     </row>
     <row r="32">
@@ -1531,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>146.3249999999993</v>
+        <v>146.3249999999992</v>
       </c>
     </row>
     <row r="36">
@@ -1553,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>125.9800000000002</v>
+        <v>180.2450000000007</v>
       </c>
     </row>
     <row r="38">
@@ -1564,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>127.8</v>
+        <v>183.9900000000007</v>
       </c>
     </row>
     <row r="39">
@@ -1575,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>127.25</v>
+        <v>178.0900000000007</v>
       </c>
     </row>
     <row r="40">
@@ -1586,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3100000000001</v>
+        <v>188.8100000000007</v>
       </c>
     </row>
     <row r="41">
@@ -1597,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>126.85</v>
+        <v>179.8350000000007</v>
       </c>
     </row>
     <row r="42">
@@ -1608,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>140.5549999999989</v>
+        <v>153.4099999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1619,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>159.2149999999989</v>
+        <v>167.1249999999999</v>
       </c>
     </row>
     <row r="44">
@@ -1630,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>142.1399999999989</v>
+        <v>139.5349999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1641,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>147.7249999999989</v>
+        <v>154.5</v>
       </c>
     </row>
     <row r="46">
@@ -1652,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>139.7449999999989</v>
+        <v>143.6599999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1663,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>226.0399999999994</v>
+        <v>85.48500000000051</v>
       </c>
     </row>
     <row r="48">
@@ -1674,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>247.1799999999994</v>
+        <v>87.9650000000005</v>
       </c>
     </row>
     <row r="49">
@@ -1685,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>221.8549999999994</v>
+        <v>79.71500000000052</v>
       </c>
     </row>
     <row r="50">
@@ -1696,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>238.4549999999994</v>
+        <v>90.7300000000005</v>
       </c>
     </row>
     <row r="51">
@@ -1707,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>224.4749999999994</v>
+        <v>84.73000000000052</v>
       </c>
     </row>
     <row r="52">
@@ -1718,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>53.66499999999927</v>
+        <v>238.195</v>
       </c>
     </row>
     <row r="53">
@@ -1729,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>51.98999999999927</v>
+        <v>242.67</v>
       </c>
     </row>
     <row r="54">
@@ -1740,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>57.97499999999927</v>
+        <v>239.82</v>
       </c>
     </row>
     <row r="55">
@@ -1751,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>55.35</v>
+        <v>249.465</v>
       </c>
     </row>
     <row r="56">
@@ -1762,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>50.35499999999927</v>
+        <v>232.75</v>
       </c>
     </row>
     <row r="57">
@@ -1773,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>295.9199999999996</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="58">
@@ -1784,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>323.5</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="59">
@@ -1795,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>294.2649999999996</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="60">
@@ -1806,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>311.1</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="61">
@@ -1817,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>297.3649999999996</v>
+        <v>224.4749999999995</v>
       </c>
     </row>
     <row r="62">
@@ -1828,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>307.6300000000017</v>
+        <v>319.6700000000007</v>
       </c>
     </row>
     <row r="63">
@@ -1839,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>312.4200000000017</v>
+        <v>323.35</v>
       </c>
     </row>
     <row r="64">
@@ -1850,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>317.6350000000016</v>
+        <v>324.5350000000007</v>
       </c>
     </row>
     <row r="65">
@@ -1861,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>316.85</v>
+        <v>329.9</v>
       </c>
     </row>
     <row r="66">
@@ -1872,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>319.5100000000016</v>
+        <v>320.0950000000008</v>
       </c>
     </row>
     <row r="67">
@@ -1883,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>154.3</v>
+        <v>224.1799999999995</v>
       </c>
     </row>
     <row r="68">
@@ -1894,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>148.3449999999993</v>
+        <v>224.6649999999995</v>
       </c>
     </row>
     <row r="69">
@@ -1905,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>128.7049999999993</v>
+        <v>201.1149999999995</v>
       </c>
     </row>
     <row r="70">
@@ -1916,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>146.3249999999993</v>
+        <v>218.9699999999995</v>
       </c>
     </row>
     <row r="71">
@@ -1927,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>134.2149999999993</v>
+        <v>207.1049999999995</v>
       </c>
     </row>
   </sheetData>
@@ -1985,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>23.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2007,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>11.09999990463257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2029,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.630000000001701</v>
+        <v>19.67</v>
       </c>
     </row>
     <row r="8">
@@ -2040,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.42000000000166</v>
+        <v>23.35</v>
       </c>
     </row>
     <row r="9">
@@ -2051,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>17.63499999046326</v>
+        <v>24.53500000000051</v>
       </c>
     </row>
     <row r="10">
@@ -2062,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>16.84999990463257</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="11">
@@ -2073,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>19.50999999046326</v>
+        <v>20.095</v>
       </c>
     </row>
     <row r="12">
@@ -2175,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.77</v>
+        <v>12.775</v>
       </c>
     </row>
     <row r="3">
@@ -2186,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.65</v>
+        <v>18.32</v>
       </c>
     </row>
     <row r="4">
@@ -2197,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7.6</v>
+        <v>13.155</v>
       </c>
     </row>
     <row r="5">
@@ -2208,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>13.05</v>
+        <v>20.115</v>
       </c>
     </row>
     <row r="6">
@@ -2219,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>10.49</v>
+        <v>17.825</v>
       </c>
     </row>
     <row r="7">
@@ -2505,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>10.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2516,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>8.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2527,7 +2652,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2538,7 +2663,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>14.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2549,7 +2674,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>5.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2670,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>4.285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2681,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>6.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2692,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>3.755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2703,7 +2828,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>5.305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2714,7 +2839,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +2853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2808,28 +2933,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
